--- a/Mercedes-benz/TASK#5535.xlsx
+++ b/Mercedes-benz/TASK#5535.xlsx
@@ -8,22 +8,22 @@
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Repurchase" sheetId="3" r:id="rId2"/>
+    <sheet name="Repurchase Certificate" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Repurchase!$A$5:$Z$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Repurchase Certificate'!$A$5:$Z$21</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 2" guid="{A4462A4B-000D-4627-9D75-D3F2AD3DFC3E}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{DE9553FD-47A7-4193-98C2-32FB682FBB0C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{3C8E15B9-EC7E-47AB-B9B8-EF296D699EB2}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{DE9553FD-47A7-4193-98C2-32FB682FBB0C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{A4462A4B-000D-4627-9D75-D3F2AD3DFC3E}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>Mercedes Benz</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Jitendra</t>
-  </si>
-  <si>
     <t>Pre - Conditions</t>
   </si>
   <si>
@@ -74,9 +71,6 @@
   </si>
   <si>
     <t>Apurwa</t>
-  </si>
-  <si>
-    <t>Project Name:-&gt;Renault</t>
   </si>
   <si>
     <t>Created By:-</t>
@@ -150,6 +144,18 @@
   <si>
     <t>Note: Vin are same</t>
   </si>
+  <si>
+    <t>For the Active Agreement user is able to create the new Certificate request</t>
+  </si>
+  <si>
+    <t>WDD1173086L000934</t>
+  </si>
+  <si>
+    <t>Agreement is active but still the user is able to create the new certificate request</t>
+  </si>
+  <si>
+    <t>Project Name:-&gt;MB</t>
+  </si>
 </sst>
 </file>
 
@@ -157,10 +163,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
-    <numFmt numFmtId="166" formatCode="dd\-mm\-yyyy"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -296,8 +302,21 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF263238"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,6 +375,12 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor rgb="FFF6F6F6"/>
       </patternFill>
     </fill>
   </fills>
@@ -484,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -530,11 +555,11 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -565,23 +590,6 @@
     <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -610,9 +618,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -672,11 +677,48 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -903,24 +945,24 @@
       <c r="B3" s="1"/>
     </row>
     <row r="7" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="34"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="64"/>
     </row>
     <row r="8" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="64"/>
     </row>
     <row r="9" spans="2:7" ht="15.75" customHeight="1">
       <c r="B9" s="2" t="s">
@@ -1003,7 +1045,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1020,15 +1062,15 @@
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
-      <c r="D1" s="36" t="s">
-        <v>17</v>
+      <c r="D1" s="79" t="s">
+        <v>43</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="34"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="64"/>
       <c r="K1" s="14"/>
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
@@ -1048,23 +1090,23 @@
     </row>
     <row r="2" spans="1:26" ht="15">
       <c r="A2" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
-      <c r="B2" s="37" t="s">
-        <v>10</v>
+      <c r="B2" s="78" t="s">
+        <v>37</v>
       </c>
-      <c r="C2" s="34"/>
+      <c r="C2" s="64"/>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
       <c r="F2" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
-      <c r="G2" s="38" t="s">
-        <v>39</v>
+      <c r="G2" s="66" t="s">
+        <v>37</v>
       </c>
-      <c r="H2" s="39"/>
+      <c r="H2" s="67"/>
       <c r="I2" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
@@ -1086,26 +1128,26 @@
     </row>
     <row r="3" spans="1:26" ht="15">
       <c r="A3" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
-      <c r="G3" s="40">
-        <v>44095</v>
+      <c r="G3" s="68">
+        <v>44096</v>
       </c>
-      <c r="H3" s="39"/>
+      <c r="H3" s="67"/>
       <c r="I3" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
@@ -1126,14 +1168,14 @@
     </row>
     <row r="4" spans="1:26" ht="15">
       <c r="A4" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
       <c r="F4" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G4" s="29"/>
       <c r="H4" s="14"/>
@@ -1157,59 +1199,59 @@
       <c r="Z4" s="15"/>
     </row>
     <row r="5" spans="1:26" ht="45">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="D5" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="E5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="G5" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="I5" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="42" t="s">
+      <c r="O5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="P5" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="42" t="s">
+      <c r="Q5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="42" t="s">
+      <c r="R5" s="33" t="s">
         <v>35</v>
-      </c>
-      <c r="Q5" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="R5" s="42" t="s">
-        <v>37</v>
       </c>
       <c r="S5" s="15"/>
       <c r="T5" s="15"/>
@@ -1220,59 +1262,65 @@
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" ht="99" customHeight="1">
-      <c r="A6" s="68"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="68" t="s">
+    <row r="6" spans="1:26" s="77" customFormat="1" ht="99" customHeight="1">
+      <c r="A6" s="69"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="76"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+    </row>
+    <row r="7" spans="1:26" ht="99" customHeight="1">
+      <c r="A7" s="58"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="71" t="s">
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
-    </row>
-    <row r="7" spans="1:26" ht="99" customHeight="1">
-      <c r="A7" s="48"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="52"/>
+      <c r="H7" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="61"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
       <c r="U7" s="25"/>
       <c r="V7" s="25"/>
       <c r="W7" s="25"/>
@@ -1281,26 +1329,26 @@
       <c r="Z7" s="25"/>
     </row>
     <row r="8" spans="1:26" ht="99" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
       <c r="U8" s="25"/>
       <c r="V8" s="25"/>
       <c r="W8" s="25"/>
@@ -1309,26 +1357,26 @@
       <c r="Z8" s="25"/>
     </row>
     <row r="9" spans="1:26" ht="99" customHeight="1">
-      <c r="A9" s="48"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="52"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="42"/>
       <c r="U9" s="25"/>
       <c r="V9" s="25"/>
       <c r="W9" s="25"/>
@@ -1337,26 +1385,26 @@
       <c r="Z9" s="25"/>
     </row>
     <row r="10" spans="1:26" ht="99" customHeight="1">
-      <c r="A10" s="48"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="52"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="42"/>
       <c r="U10" s="25"/>
       <c r="V10" s="25"/>
       <c r="W10" s="25"/>
@@ -1365,26 +1413,26 @@
       <c r="Z10" s="25"/>
     </row>
     <row r="11" spans="1:26" ht="99" customHeight="1">
-      <c r="A11" s="48"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="52"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
       <c r="U11" s="25"/>
       <c r="V11" s="25"/>
       <c r="W11" s="25"/>
@@ -1393,26 +1441,26 @@
       <c r="Z11" s="25"/>
     </row>
     <row r="12" spans="1:26" ht="99" customHeight="1">
-      <c r="A12" s="48"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="52"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
       <c r="U12" s="25"/>
       <c r="V12" s="25"/>
       <c r="W12" s="25"/>
@@ -1421,26 +1469,26 @@
       <c r="Z12" s="25"/>
     </row>
     <row r="13" spans="1:26" ht="99" customHeight="1">
-      <c r="A13" s="48"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="52"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="42"/>
       <c r="U13" s="25"/>
       <c r="V13" s="25"/>
       <c r="W13" s="25"/>
@@ -1449,27 +1497,27 @@
       <c r="Z13" s="25"/>
     </row>
     <row r="14" spans="1:26" ht="99" customHeight="1">
-      <c r="A14" s="48"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="58"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="41"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="32"/>
       <c r="V14" s="22"/>
       <c r="W14" s="22"/>
       <c r="X14" s="22"/>
@@ -1477,27 +1525,27 @@
       <c r="Z14" s="22"/>
     </row>
     <row r="15" spans="1:26" ht="99" customHeight="1">
-      <c r="A15" s="48"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="61"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="52"/>
-      <c r="U15" s="41"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="32"/>
       <c r="V15" s="22"/>
       <c r="W15" s="22"/>
       <c r="X15" s="22"/>
@@ -1505,26 +1553,26 @@
       <c r="Z15" s="22"/>
     </row>
     <row r="16" spans="1:26" ht="99" customHeight="1">
-      <c r="A16" s="48"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="58"/>
-      <c r="T16" s="52"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="42"/>
       <c r="U16" s="25"/>
       <c r="V16" s="25"/>
       <c r="W16" s="25"/>
@@ -1533,26 +1581,26 @@
       <c r="Z16" s="25"/>
     </row>
     <row r="17" spans="1:26" ht="99" customHeight="1">
-      <c r="A17" s="48"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="61"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="52"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
       <c r="U17" s="25"/>
       <c r="V17" s="25"/>
       <c r="W17" s="25"/>
@@ -1561,26 +1609,26 @@
       <c r="Z17" s="25"/>
     </row>
     <row r="18" spans="1:26" ht="99" customHeight="1">
-      <c r="A18" s="48"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="61"/>
-      <c r="S18" s="52"/>
-      <c r="T18" s="52"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
       <c r="U18" s="25"/>
       <c r="V18" s="25"/>
       <c r="W18" s="25"/>
@@ -1589,26 +1637,26 @@
       <c r="Z18" s="25"/>
     </row>
     <row r="19" spans="1:26" ht="15">
-      <c r="A19" s="48"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="61"/>
-      <c r="S19" s="52"/>
-      <c r="T19" s="52"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
       <c r="U19" s="25"/>
       <c r="V19" s="25"/>
       <c r="W19" s="25"/>
@@ -1617,26 +1665,26 @@
       <c r="Z19" s="25"/>
     </row>
     <row r="20" spans="1:26" ht="15">
-      <c r="A20" s="48"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="61"/>
-      <c r="S20" s="52"/>
-      <c r="T20" s="52"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
       <c r="U20" s="25"/>
       <c r="V20" s="25"/>
       <c r="W20" s="25"/>
@@ -1645,19 +1693,19 @@
       <c r="Z20" s="25"/>
     </row>
     <row r="21" spans="1:26" ht="15">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="25"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
       <c r="N21" s="25"/>
       <c r="O21" s="26"/>
       <c r="P21" s="24"/>
